--- a/data/labor_choice.xlsx
+++ b/data/labor_choice.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniaaguilera/Documents/GitHub/child-care-welfare/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F50F364-A66C-5046-888E-7D10BCD8B196}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>nº of sims</t>
   </si>
@@ -34,13 +28,28 @@
     <t>cc choice</t>
   </si>
   <si>
-    <t>beta_0</t>
+    <t>test score</t>
+  </si>
+  <si>
+    <t>wage ec: beta_0</t>
+  </si>
+  <si>
+    <t>wage ec: beta_1</t>
+  </si>
+  <si>
+    <t>sigma^2_{varepsilon}</t>
+  </si>
+  <si>
+    <t>alpha_1</t>
   </si>
   <si>
     <t>beta_1</t>
   </si>
   <si>
-    <t>sigma^2_{varepsilon}</t>
+    <t>gamma_1</t>
+  </si>
+  <si>
+    <t>var score</t>
   </si>
   <si>
     <t>sim</t>
@@ -55,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,19 +102,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -147,7 +148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,27 +180,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,24 +214,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,17 +389,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,85 +404,158 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.71022409566002831</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.64922792315483091</v>
+        <v>0.6478708744049072</v>
       </c>
       <c r="E3">
-        <v>1.8505608348544981E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.138267933780091E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.70888210245601946</v>
+        <v>0.7087530646479417</v>
       </c>
       <c r="D4">
-        <v>0.64589656293392184</v>
+        <v>0.6481529951095581</v>
       </c>
       <c r="E4">
-        <v>1.9169382692255651E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.968615596912633E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>-0.32428681083583177</v>
+        <v>-0.1035229614586905</v>
       </c>
       <c r="D5">
-        <v>-0.33629126538653542</v>
+        <v>0.001248546235729009</v>
       </c>
       <c r="E5">
-        <v>3.8128123223913138E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6.593232066656897E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.11679976933432699</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1179415749159574</v>
+        <v>-0.3354450008465289</v>
       </c>
       <c r="E6">
-        <v>2.9480622359893231E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.03808297621907151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.25385677978978372</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2572902055150813</v>
+        <v>0.1176616675751188</v>
+      </c>
+      <c r="E7">
+        <v>0.002947579664041122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.2555413026140858</v>
+      </c>
+      <c r="E8">
+        <v>7.172744050187494E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.003276021083153717</v>
+      </c>
+      <c r="D9">
+        <v>0.1581744366835647</v>
+      </c>
+      <c r="E9">
+        <v>0.02664125470263749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>-0.0001895634881660495</v>
+      </c>
+      <c r="D10">
+        <v>-0.003713000398379693</v>
+      </c>
+      <c r="E10">
+        <v>0.001377319523069383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>-0.005741201080244453</v>
+      </c>
+      <c r="D11">
+        <v>-0.00581294519765094</v>
+      </c>
+      <c r="E11">
+        <v>0.0004152551402513529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1.353504906219058</v>
+      </c>
+      <c r="D12">
+        <v>0.994611993432045</v>
+      </c>
+      <c r="E12">
+        <v>8.503140571452054E-05</v>
       </c>
     </row>
   </sheetData>
